--- a/biology/Zoologie/Anthracinae/Anthracinae.xlsx
+++ b/biology/Zoologie/Anthracinae/Anthracinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Anthracinae sont une sous-famille d'insectes diptères de la famille des Bombyliidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-famille des Anthracinae est attribuée à Pierre André Latreille en 1804[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-famille des Anthracinae est attribuée à Pierre André Latreille en 1804.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il y a plus de 80 genres et environ 2 000 espèces décrites dans la sous-famille Anthracinae[2],[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y a plus de 80 genres et environ 2 000 espèces décrites dans la sous-famille Anthracinae.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Liste des tribus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Anthracini Latreille, 1804
 Aphoebantini Becker, 
@@ -609,7 +627,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Anthrax Scopoli, 1763
@@ -720,7 +740,9 @@
           <t>Genres éteints</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>† Anthracida Germar, 1849
 † Pachysystropus Cockerell, 1909
